--- a/DetectarOndaP12Registros.xlsx
+++ b/DetectarOndaP12Registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5996E58A-3BE6-4EAF-A456-C289B8C87C63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79243F49-B35C-4A81-9FFB-745BD4B80376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{80179530-0E9D-4F0B-A1F2-6D57D61FED1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{80179530-0E9D-4F0B-A1F2-6D57D61FED1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:D14" si="0">SUM(B2:B13)</f>
+        <f t="shared" ref="B14" si="0">SUM(B2:B13)</f>
         <v>22108</v>
       </c>
       <c r="C14">

--- a/DetectarOndaP12Registros.xlsx
+++ b/DetectarOndaP12Registros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\Arritmias\algoritmoArritmias-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79243F49-B35C-4A81-9FFB-745BD4B80376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CEAE8-631E-481C-85F9-2CE341427E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{80179530-0E9D-4F0B-A1F2-6D57D61FED1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CF41296-AD37-40D7-9F3B-85B9BD367AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,34 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t># registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> latidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sensibilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> predictividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deteccionfallidalatidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deteccionfallidaporc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>100m</t>
   </si>
@@ -100,14 +73,121 @@
   </si>
   <si>
     <t>12 registros</t>
+  </si>
+  <si>
+    <t>Ondas P</t>
+  </si>
+  <si>
+    <t>Registro Mit</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Sensibilidad</t>
+  </si>
+  <si>
+    <t>Predictividad</t>
+  </si>
+  <si>
+    <t>99.91</t>
+  </si>
+  <si>
+    <t>99.21</t>
+  </si>
+  <si>
+    <t>99.14</t>
+  </si>
+  <si>
+    <t>99.36</t>
+  </si>
+  <si>
+    <t>98.42</t>
+  </si>
+  <si>
+    <t>98.99</t>
+  </si>
+  <si>
+    <t>97.35</t>
+  </si>
+  <si>
+    <t>73.06</t>
+  </si>
+  <si>
+    <t>99.87</t>
+  </si>
+  <si>
+    <t>99.93</t>
+  </si>
+  <si>
+    <t>99.75</t>
+  </si>
+  <si>
+    <t>78.26</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>99.96</t>
+  </si>
+  <si>
+    <t>59.51</t>
+  </si>
+  <si>
+    <t>43.38</t>
+  </si>
+  <si>
+    <t>97.20</t>
+  </si>
+  <si>
+    <t>90.13</t>
+  </si>
+  <si>
+    <t>90.37</t>
+  </si>
+  <si>
+    <t>48.22</t>
+  </si>
+  <si>
+    <t>98.24</t>
+  </si>
+  <si>
+    <t>79.68</t>
+  </si>
+  <si>
+    <t>78.59</t>
+  </si>
+  <si>
+    <t>99.81</t>
+  </si>
+  <si>
+    <t>94.07</t>
+  </si>
+  <si>
+    <t>83.52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,430 +531,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE83EB09-9E88-4D79-B857-86AEC93EE93B}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C7768F-A14B-401A-A93C-6C558FCFB345}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>2257</v>
       </c>
       <c r="C2">
-        <v>99.867080000000001</v>
+        <v>2255</v>
       </c>
       <c r="D2">
-        <v>99.164100000000005</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2254</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>0.97474499999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1865</v>
       </c>
       <c r="C3">
-        <v>99.142090999999994</v>
+        <v>1849</v>
       </c>
       <c r="D3">
-        <v>99.301826000000005</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>1849</v>
-      </c>
-      <c r="F3">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>29</v>
-      </c>
-      <c r="I3">
-        <v>1.5549599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2084</v>
       </c>
       <c r="C4">
-        <v>98.560461000000004</v>
+        <v>2051</v>
       </c>
       <c r="D4">
-        <v>99.035679999999999</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2054</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>2.399232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1507</v>
       </c>
       <c r="C5">
-        <v>98.341075000000004</v>
+        <v>1467</v>
       </c>
       <c r="D5">
-        <v>73.221344000000002</v>
+        <v>541</v>
       </c>
       <c r="E5">
-        <v>1482</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>542</v>
-      </c>
-      <c r="H5">
-        <v>567</v>
-      </c>
-      <c r="I5">
-        <v>37.624419000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1534</v>
       </c>
       <c r="C6">
-        <v>99.934810999999996</v>
+        <v>1532</v>
       </c>
       <c r="D6">
-        <v>99.869707000000005</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1533</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0.19556699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1620</v>
       </c>
       <c r="C7">
-        <v>99.814814999999996</v>
+        <v>1616</v>
       </c>
       <c r="D7">
-        <v>78.305085000000005</v>
+        <v>449</v>
       </c>
       <c r="E7">
-        <v>1617</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>448</v>
-      </c>
-      <c r="H7">
-        <v>451</v>
-      </c>
-      <c r="I7">
-        <v>27.839506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2475</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>2475</v>
       </c>
       <c r="D8">
-        <v>99.959612000000007</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2475</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>4.0404000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1415</v>
       </c>
       <c r="C9">
-        <v>61.837456000000003</v>
+        <v>842</v>
       </c>
       <c r="D9">
-        <v>44.642856999999999</v>
+        <v>1099</v>
       </c>
       <c r="E9">
-        <v>875</v>
-      </c>
-      <c r="F9">
-        <v>540</v>
-      </c>
-      <c r="G9">
-        <v>1085</v>
-      </c>
-      <c r="H9">
-        <v>1625</v>
-      </c>
-      <c r="I9">
-        <v>114.84098899999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2001</v>
       </c>
       <c r="C10">
-        <v>97.301349000000002</v>
+        <v>1945</v>
       </c>
       <c r="D10">
-        <v>88.459790999999996</v>
+        <v>213</v>
       </c>
       <c r="E10">
-        <v>1947</v>
-      </c>
-      <c r="F10">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>254</v>
-      </c>
-      <c r="H10">
-        <v>308</v>
-      </c>
-      <c r="I10">
-        <v>15.392303999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1257</v>
       </c>
       <c r="C11">
-        <v>90.294352000000003</v>
+        <v>1136</v>
       </c>
       <c r="D11">
-        <v>47.271970000000003</v>
+        <v>1220</v>
       </c>
       <c r="E11">
-        <v>1135</v>
-      </c>
-      <c r="F11">
-        <v>122</v>
-      </c>
-      <c r="G11">
-        <v>1266</v>
-      </c>
-      <c r="H11">
-        <v>1388</v>
-      </c>
-      <c r="I11">
-        <v>110.421639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2099</v>
       </c>
       <c r="C12">
-        <v>98.475465</v>
+        <v>2062</v>
       </c>
       <c r="D12">
-        <v>80.365474000000006</v>
+        <v>526</v>
       </c>
       <c r="E12">
-        <v>2067</v>
-      </c>
-      <c r="F12">
-        <v>32</v>
-      </c>
-      <c r="G12">
-        <v>505</v>
-      </c>
-      <c r="H12">
-        <v>537</v>
-      </c>
-      <c r="I12">
-        <v>25.583611000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1994</v>
       </c>
       <c r="C13">
-        <v>78.585757000000001</v>
+        <v>1567</v>
       </c>
       <c r="D13">
-        <v>99.808916999999994</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1567</v>
-      </c>
-      <c r="F13">
         <v>427</v>
       </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>430</v>
-      </c>
-      <c r="I13">
-        <v>21.564693999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14" si="0">SUM(B2:B13)</f>
+        <f>SUM(B2:B13)</f>
         <v>22108</v>
       </c>
       <c r="C14">
-        <f>E14/(E14+F14)*100</f>
-        <v>94.332368373439479</v>
+        <f t="shared" ref="C14:D14" si="0">SUM(C2:C13)</f>
+        <v>20797</v>
       </c>
       <c r="D14">
-        <f>E14/(E14+G14)*100</f>
-        <v>83.37664414504458</v>
+        <f t="shared" si="0"/>
+        <v>4104</v>
       </c>
       <c r="E14">
         <f>SUM(E2:E13)</f>
-        <v>20855</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F2:F13)</f>
-        <v>1253</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:H14" si="1">SUM(G2:G13)</f>
-        <v>4158</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>5411</v>
-      </c>
-      <c r="I14">
-        <f>H14/B14*100</f>
-        <v>24.475303057716662</v>
+        <v>1311</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>